--- a/real_data/vgg19.xlsx
+++ b/real_data/vgg19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/real data benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968BEEE-3F94-6844-A78F-C15CC8E44092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94671E92-A789-8A4D-B562-68B38C321E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="500" windowWidth="27240" windowHeight="15940" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="12720" yWindow="500" windowWidth="16080" windowHeight="15940" activeTab="3" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66690E67-5FCE-6A4A-826E-A212024B2386}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -980,7 +976,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,12 +1263,290 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD9CE4-C2DE-5041-8469-82CCEAE8B1CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6230</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4039</v>
+      </c>
+      <c r="B10" s="1">
+        <v>23375</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11384</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
